--- a/Saleel Tables VER2/EMPLOYEE Table.xlsx
+++ b/Saleel Tables VER2/EMPLOYEE Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleel\Desktop\Saleel Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleel\Desktop\Saleel Tables VER2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2108,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
